--- a/Sunum Dokumanlar/BEP Study/to Do List.xlsx
+++ b/Sunum Dokumanlar/BEP Study/to Do List.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selim.soysal\Desktop\YL\ITU IYB\IYB501E Building Information Modeling\Örnek Proje\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eray\Desktop\YL DellEv\FEDERATED\Sunum Dokumanlar\BEP Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{129838DA-7EAD-40E0-93AB-247B3C7ACF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3E9A4C7-0CCC-455F-A743-46D4C60016CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sayfa4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>Yapılacak İşler</t>
   </si>
@@ -142,16 +144,190 @@
   <si>
     <t>Forking Kısmı Klasörlemenin Gözden Geçirilmesi ve BEP'de gösterelim</t>
   </si>
+  <si>
+    <t>The four steps within the procedure include</t>
+  </si>
+  <si>
+    <t>Identify high-value BIM uses during project planning and design phases</t>
+  </si>
+  <si>
+    <t>Design the BIM execution process by creating process maps</t>
+  </si>
+  <si>
+    <t>Define the BIM deliverables in the form of information exchanges</t>
+  </si>
+  <si>
+    <t>Develop the infrastructure in the form of contracts, communication procedures, technology, and quality control to support the implementation</t>
+  </si>
+  <si>
+    <t>BIM çıktılarını bilgi alışverişi şeklinde tanımlayın</t>
+  </si>
+  <si>
+    <t>Süreç haritaları oluşturarak BIM yürütme sürecini tasarlayın</t>
+  </si>
+  <si>
+    <t>Uygulamayı desteklemek için sözleşmeler, iletişim prosedürleri, teknoloji ve kalite kontrol şeklinde altyapıyı geliştirmek</t>
+  </si>
+  <si>
+    <t>Proje planlama ve tasarım aşamalarında yüksek değerli BIM kullanımlarını belirleyin</t>
+  </si>
+  <si>
+    <t>Modeller</t>
+  </si>
+  <si>
+    <t>Statik</t>
+  </si>
+  <si>
+    <t>Mimari</t>
+  </si>
+  <si>
+    <t>Elektrik</t>
+  </si>
+  <si>
+    <t>Mekanik</t>
+  </si>
+  <si>
+    <t>Kolon</t>
+  </si>
+  <si>
+    <t>Kiriş</t>
+  </si>
+  <si>
+    <t>Döşeme</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Alan :</t>
+  </si>
+  <si>
+    <t>X39-X44 - Y12-Y18 Aksları arası</t>
+  </si>
+  <si>
+    <t>Proje Adı :</t>
+  </si>
+  <si>
+    <t>IZU</t>
+  </si>
+  <si>
+    <t>9 Yoğun Bakım Odası</t>
+  </si>
+  <si>
+    <t>Otomatik Kapı</t>
+  </si>
+  <si>
+    <t>Pencere</t>
+  </si>
+  <si>
+    <t>Yatak</t>
+  </si>
+  <si>
+    <t>Cephe Kaplama</t>
+  </si>
+  <si>
+    <t>Asma Tavan</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>Mobilya-Lavabo</t>
+  </si>
+  <si>
+    <t>Mobilya-Koltuk</t>
+  </si>
+  <si>
+    <t>Mobilya-Hemşire Bankosu</t>
+  </si>
+  <si>
+    <t>Zemin-Seramik</t>
+  </si>
+  <si>
+    <t>Zemin-Parke</t>
+  </si>
+  <si>
+    <t>Zemin-PVC + Self Lev</t>
+  </si>
+  <si>
+    <t>Duvar - Alçıpan</t>
+  </si>
+  <si>
+    <t>Duvar - Bims</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Havalandırma - Kanal</t>
+  </si>
+  <si>
+    <t>Havalandırma - Menfez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Total Construction Area: (Y12-Y18 – X39-X44) 1920 m² in 631,320 m²
+- In Main Hospital facility, MT2&amp;3 block Floor 4th – 5th 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy\ ddd"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy\ ddd"/>
+    <numFmt numFmtId="171" formatCode="##0\ &quot;m²&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +347,16 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -263,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,23 +505,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -352,6 +563,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>29345</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>126743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Resim 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="182880"/>
+          <a:ext cx="5515745" cy="7259063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>86996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Resim 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7564583"/>
+          <a:ext cx="5500255" cy="4949940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8202</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>119488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Resim 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12967855"/>
+          <a:ext cx="6713802" cy="3901778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,11 +980,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4227BBBE-C40A-427E-8BCC-0BD93DEAE13C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,4 +1284,470 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="26" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" s="26" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>2</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="26" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>3</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="26" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
+        <v>4</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="31">
+        <f>960</f>
+        <v>960</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="31"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="31"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="31"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="31"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="E8" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O84" sqref="O84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sunum Dokumanlar/BEP Study/to Do List.xlsx
+++ b/Sunum Dokumanlar/BEP Study/to Do List.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>Yapılacak İşler</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>Mekanik Kanal Projesinin Temizlenmesi</t>
-  </si>
-  <si>
-    <t>Mekanik Medikal Gaz Projesinin Temizlenmesi</t>
-  </si>
-  <si>
-    <t>Elektrik Kablo Tavası Projesinin Temizlenmesi</t>
   </si>
   <si>
     <t>Çizilecek Elemanların ve LOD Seviyelerinin Belirlenmesi</t>
@@ -181,9 +175,6 @@
     <t>Mimari</t>
   </si>
   <si>
-    <t>Elektrik</t>
-  </si>
-  <si>
     <t>Mekanik</t>
   </si>
   <si>
@@ -209,9 +200,6 @@
   </si>
   <si>
     <t>IZU</t>
-  </si>
-  <si>
-    <t>9 Yoğun Bakım Odası</t>
   </si>
   <si>
     <t>Otomatik Kapı</t>
@@ -316,6 +304,24 @@
     <t xml:space="preserve">- Total Construction Area: (Y12-Y18 – X39-X44) 1920 m² in 631,320 m²
 - In Main Hospital facility, MT2&amp;3 block Floor 4th – 5th 
 </t>
+  </si>
+  <si>
+    <t>Mobilya-Masa</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>18 Yoğun Bakım Odası</t>
+  </si>
+  <si>
+    <t>GELECEK</t>
   </si>
 </sst>
 </file>
@@ -325,7 +331,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy\ ddd"/>
-    <numFmt numFmtId="171" formatCode="##0\ &quot;m²&quot;"/>
+    <numFmt numFmtId="166" formatCode="##0\ &quot;m²&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -539,7 +545,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -981,16 +987,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="3.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.44140625" style="18" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="24" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="78.88671875" style="18" bestFit="1" customWidth="1"/>
@@ -998,19 +1004,19 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1018,16 +1024,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="20">
         <v>44867</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1036,16 +1042,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="21">
         <v>44867</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1054,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="21">
         <f>+D4+2</f>
@@ -1062,7 +1068,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1071,15 +1077,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="21">
         <f>+D4+3</f>
         <v>44870</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F6" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1094,14 +1102,16 @@
         <f>+D4+1</f>
         <v>44868</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F7" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
-        <f t="shared" ref="B8:B14" si="0">+B7+1</f>
+        <f t="shared" ref="B8:B12" si="0">+B7+1</f>
         <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1111,9 +1121,11 @@
         <f>+D7</f>
         <v>44868</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F8" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1128,9 +1140,11 @@
         <f>+D8+1</f>
         <v>44869</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F9" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1139,15 +1153,15 @@
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D10" s="21">
-        <f>+D9</f>
+        <f>+D8+1</f>
         <v>44869</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1156,15 +1170,15 @@
         <v>9</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D11" s="21">
-        <f>+D10</f>
-        <v>44869</v>
+        <f>+D10+1</f>
+        <v>44870</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1173,50 +1187,30 @@
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12" s="21">
-        <f>+D8+1</f>
-        <v>44869</v>
+        <f>+D11</f>
+        <v>44870</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="21">
-        <f>+D12+1</f>
-        <v>44870</v>
-      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="21">
-        <f>+D13</f>
-        <v>44870</v>
-      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
@@ -1247,39 +1241,25 @@
       <c r="F18" s="15"/>
     </row>
     <row r="19" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="15"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="2:6" s="2" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="17"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1291,20 +1271,20 @@
   <dimension ref="A3:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" style="28" customWidth="1"/>
     <col min="2" max="2" width="33.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
     <col min="4" max="4" width="5.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="26" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -1312,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4"/>
     </row>
@@ -1324,10 +1304,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="26" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -1335,10 +1315,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="26" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -1346,10 +1326,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1362,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1379,25 +1359,25 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="31">
-        <f>960</f>
-        <v>960</v>
+        <f>960*2</f>
+        <v>1920</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1418,277 +1398,315 @@
     </row>
     <row r="8" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="30"/>
       <c r="E8" s="33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B12" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B14" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B15" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B16" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B17" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B18" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B19" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B20" s="27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B21" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B22" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B24" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B25" s="27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="B26" s="27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="27"/>
+      <c r="A27" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
@@ -1710,25 +1728,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
-      <c r="B31" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="B31" s="27"/>
       <c r="C31" s="29"/>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
-      <c r="B32" s="27" t="s">
-        <v>33</v>
-      </c>
+      <c r="B32" s="27"/>
       <c r="C32" s="29"/>
       <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="29"/>
-      <c r="B33" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="B33" s="27"/>
       <c r="C33" s="29"/>
       <c r="D33" s="27"/>
     </row>
